--- a/Excel Files/Scenario 17/Scenario 17_TC017/expectedCustomerOrder.xlsx
+++ b/Excel Files/Scenario 17/Scenario 17_TC017/expectedCustomerOrder.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RebuildWork\OrderSpace\order-service\order-service\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasin\git\tb-syazwan-ttap-brivge\Excel Files\Scenario 17\Scenario 17_TC017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846EA447-6B90-4258-A33F-20061E42DAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED0CEAA-DD69-4363-94C8-7A29A75499A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order Info" sheetId="4" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
@@ -24,154 +24,11 @@
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="119">
-  <si>
-    <t>#{Label_Title}</t>
-  </si>
-  <si>
-    <t>#{Label_Order_Type}</t>
-  </si>
-  <si>
-    <t>#{Label_Remark}</t>
-  </si>
-  <si>
-    <t>#{Label_Seller}</t>
-  </si>
-  <si>
-    <t>#{Label_Buyer}</t>
-  </si>
-  <si>
-    <t>#{Label_Name}</t>
-  </si>
-  <si>
-    <t>#{Label_Address_1}</t>
-  </si>
-  <si>
-    <t>#{Label_Address_2}</t>
-  </si>
-  <si>
-    <t>#{Label_Address_3}</t>
-  </si>
-  <si>
-    <t>#{Label_Address_4}</t>
-  </si>
-  <si>
-    <t>#{Label_Postal_Code}</t>
-  </si>
-  <si>
-    <t>#{Label_Tel}</t>
-  </si>
-  <si>
-    <t>#{Label_Fax}</t>
-  </si>
-  <si>
-    <t>#{Label_CO_No}</t>
-  </si>
-  <si>
-    <t>#{Label_Business_Type}</t>
-  </si>
-  <si>
-    <t>#{Label_Payment_Terms}</t>
-  </si>
-  <si>
-    <t>#{Label_Incoterms}</t>
-  </si>
-  <si>
-    <t>#{Label_Order_Frequency}</t>
-  </si>
-  <si>
-    <t>#{Label_Order_Date}</t>
-  </si>
-  <si>
-    <t>#{Label_Target_Date}</t>
-  </si>
-  <si>
-    <t>#{Grid_Parts_No}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{Grid_Customer_Parts_No}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{Grid_Back_No}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{Grid_Sales_Order_No}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{Grid_Supplier_Code}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{Grid_SPQ}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{Grid_Order_Lot}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{Grid_Order_Qty}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{Grid_UOM}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{Grid_Unit_Price}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{Grid_Currency}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{Grid_Amount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{Grid_Forecast}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{Grid_Status}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{Grid_Inbounded_Qty}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{Grid_Inbound_Plan_Date}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{Grid_Estimated_Inbound_Date}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{Label_Title_Forecast}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{Label_Title_Plan}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Customer Order Download</t>
   </si>
@@ -269,12 +126,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Customer Order Download(Forecast Attached Sheet)</t>
-  </si>
-  <si>
-    <t>Customer Order Download(Inbound Plan &amp; Estimate Attached Sheet)</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -285,9 +136,6 @@
   </si>
   <si>
     <t>Inbound Plan Date</t>
-  </si>
-  <si>
-    <t>Estimated Inbound Date</t>
   </si>
   <si>
     <t>PK-SUP-POC</t>
@@ -323,7 +171,7 @@
     <t>1234</t>
   </si>
   <si>
-    <t>cs1701-2310001</t>
+    <t>cs1709-2310001</t>
   </si>
   <si>
     <t>Firm</t>
@@ -335,16 +183,34 @@
     <t>Ten Day</t>
   </si>
   <si>
-    <t>21 Oct 2023 - 31 Oct 2023</t>
+    <t>01 Nov 2023 - 10 Nov 2023</t>
   </si>
   <si>
     <t>Sc17 Free - 30 Days</t>
   </si>
   <si>
-    <t>01 Nov ~ 10 Nov</t>
+    <t>11 Nov ~ 20 Nov</t>
   </si>
   <si>
     <t>FC Qty 1</t>
+  </si>
+  <si>
+    <t>scenario1720230604003</t>
+  </si>
+  <si>
+    <t>PK-CUS-scenario17-20230604-003</t>
+  </si>
+  <si>
+    <t>b00003</t>
+  </si>
+  <si>
+    <t>CRT</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>Submitted</t>
   </si>
   <si>
     <t>scenario1720230604004</t>
@@ -359,24 +225,6 @@
     <t>BOX</t>
   </si>
   <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>Submitted</t>
-  </si>
-  <si>
-    <t>scenario1720230604001</t>
-  </si>
-  <si>
-    <t>PK-CUS-scenario17-20230604-001</t>
-  </si>
-  <si>
-    <t>b00001</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
     <t>scenario1720230604002</t>
   </si>
   <si>
@@ -384,6 +232,9 @@
   </si>
   <si>
     <t>b00002</t>
+  </si>
+  <si>
+    <t>PC</t>
   </si>
   <si>
     <t>scenario1720230604005</t>
@@ -395,16 +246,13 @@
     <t>ROL</t>
   </si>
   <si>
-    <t>scenario1720230604003</t>
+    <t>scenario1720230604001</t>
   </si>
   <si>
-    <t>PK-CUS-scenario17-20230604-003</t>
+    <t>PK-CUS-scenario17-20230604-001</t>
   </si>
   <si>
-    <t>b00003</t>
-  </si>
-  <si>
-    <t>CRT</t>
+    <t>b00001</t>
   </si>
   <si>
     <t>AUTHORIZATION:</t>
@@ -417,30 +265,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="176" formatCode="dd\ mmm\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="#,##0.000"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="179" formatCode="mmm\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="168" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="171" formatCode="mmm\ yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -479,19 +315,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -510,37 +341,17 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -557,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -618,196 +429,134 @@
       <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="IBM(401K)" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="J401K" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 13" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 6 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal_061213 Compare Forecast" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準_OrionExcelDownloadForm" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="8">
+    <cellStyle name="IBM(401K)" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="J401K" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 13" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準_OrionExcelDownloadForm" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -829,7 +578,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="データ項目"/>
@@ -9214,9 +8963,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9254,9 +9003,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9289,26 +9038,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9341,26 +9073,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9534,803 +9249,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="19" max="16384" style="19" width="12.625" collapsed="true"/>
-    <col min="18" max="18" style="19" width="18.75" collapsed="true" customWidth="true"/>
-    <col min="17" max="17" style="19" width="18.75" collapsed="true" customWidth="true"/>
-    <col min="16" max="16" style="19" width="18.75" collapsed="true" customWidth="true"/>
-    <col min="1" max="1" customWidth="true" style="19" width="3.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="19" width="26.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="19" width="32.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="19" width="12.75" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="19" width="40.75" collapsed="true"/>
-    <col min="6" max="9" customWidth="true" style="19" width="18.75" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="19" width="8.75" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="19" width="18.75" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="19" width="10.75" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="19" width="18.75" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="19" width="18.75" collapsed="true"/>
-    <col min="15" max="15" style="19" width="18.75" collapsed="true" customWidth="true"/>
+    <col min="1" max="1" width="3.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="18.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="13" max="18" width="18.77734375" style="12" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="12.6640625" style="12" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1">
+    <row r="1" spans="1:19" s="5" customFormat="1">
       <c r="B1" s="4"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="13"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:19" s="18" customFormat="1" ht="23.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="22.8">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="10"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="22.2" customHeight="1">
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" s="4" customFormat="1">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="4" customFormat="1">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="4" customFormat="1">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="4" customFormat="1">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="4" customFormat="1">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="4" customFormat="1">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="9"/>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="17"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+    <row r="12" spans="1:19" s="4" customFormat="1">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B4" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="H4" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="36"/>
+    <row r="13" spans="1:19" s="4" customFormat="1">
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1">
-      <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+    <row r="14" spans="1:19" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="5"/>
     </row>
-    <row r="6" spans="1:19" s="10" customFormat="1">
-      <c r="B6" s="3" t="s">
+    <row r="15" spans="1:19" s="4" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" s="4" customFormat="1">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="5"/>
     </row>
-    <row r="7" spans="1:19" s="10" customFormat="1">
-      <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+    <row r="17" spans="2:19" s="4" customFormat="1">
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="5"/>
     </row>
-    <row r="8" spans="1:19" s="10" customFormat="1">
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+    <row r="18" spans="2:19" s="4" customFormat="1">
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="19">
+        <v>45225</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="15"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="5"/>
     </row>
-    <row r="9" spans="1:19" s="10" customFormat="1">
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+    <row r="19" spans="2:19" s="4" customFormat="1">
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="5"/>
     </row>
-    <row r="10" spans="1:19" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" s="10" customFormat="1">
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" s="10" customFormat="1">
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" s="10" customFormat="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="23"/>
-    </row>
-    <row r="14" spans="1:19" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" s="10" customFormat="1">
-      <c r="B16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="2:19" s="10" customFormat="1">
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="2:19" s="10" customFormat="1">
-      <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="29" t="n">
-        <v>45217.0</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="2:19" s="10" customFormat="1">
-      <c r="B19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="2:19" s="10" customFormat="1">
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="9"/>
+    <row r="20" spans="2:19" s="4" customFormat="1">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>70</v>
+      <c r="B21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R21" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="29"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
       <c r="N22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
       <c r="N23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="2" t="n">
-        <v>45217.0</v>
-      </c>
-      <c r="Q23" s="2" t="n">
-        <v>45240.0</v>
-      </c>
-      <c r="R23" s="2" t="n">
-        <v>45250.0</v>
+        <v>54</v>
+      </c>
+      <c r="O23" s="29"/>
+      <c r="P23" s="2">
+        <v>45225</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>45240</v>
+      </c>
+      <c r="R23" s="2">
+        <v>45250</v>
       </c>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H24" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I24" s="42" t="n">
-        <v>1600.0</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="K24" s="44" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L24" s="27" t="s">
+      <c r="B24" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="22">
+        <v>10</v>
+      </c>
+      <c r="H24" s="22">
+        <v>10</v>
+      </c>
+      <c r="I24" s="22">
+        <v>800</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="23">
+        <v>10</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="23">
+        <v>8000</v>
+      </c>
+      <c r="N24" s="22">
+        <v>800</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="22">
+        <v>10</v>
+      </c>
+      <c r="H25" s="22">
+        <v>10</v>
+      </c>
+      <c r="I25" s="22">
+        <v>1600</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="23">
+        <v>10</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="23">
+        <v>16000</v>
+      </c>
+      <c r="N25" s="22">
+        <v>1600</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="22">
+        <v>10</v>
+      </c>
+      <c r="H26" s="22">
+        <v>10</v>
+      </c>
+      <c r="I26" s="22">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="23">
+        <v>8</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="23">
+        <v>8000</v>
+      </c>
+      <c r="N26" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22">
+        <v>1000</v>
+      </c>
+      <c r="R26" s="22"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="22">
+        <v>10</v>
+      </c>
+      <c r="H27" s="22">
+        <v>10</v>
+      </c>
+      <c r="I27" s="22">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="23">
         <v>101</v>
       </c>
-      <c r="M24" s="44" t="n">
-        <v>16000.0</v>
-      </c>
-      <c r="N24" s="42" t="n">
-        <v>1600.0</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42" t="n">
-        <v>1600.0</v>
+      <c r="L27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="23">
+        <v>101000</v>
+      </c>
+      <c r="N27" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22">
+        <v>400</v>
+      </c>
+      <c r="R27" s="22">
+        <v>600</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H25" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I25" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="K25" s="44" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="M25" s="44" t="n">
-        <v>8000.0</v>
-      </c>
-      <c r="N25" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="R25" s="42"/>
+    <row r="28" spans="2:19">
+      <c r="B28" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="22">
+        <v>10</v>
+      </c>
+      <c r="H28" s="22">
+        <v>10</v>
+      </c>
+      <c r="I28" s="22">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="23">
+        <v>8</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="23">
+        <v>8000</v>
+      </c>
+      <c r="N28" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22">
+        <v>1000</v>
+      </c>
+      <c r="R28" s="22"/>
     </row>
-    <row r="26">
-      <c r="B26" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H26" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I26" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" s="44" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="M26" s="44" t="n">
-        <v>8000.0</v>
-      </c>
-      <c r="N26" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="R26" s="42"/>
+    <row r="31" spans="2:19">
+      <c r="P31" s="21" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="27">
-      <c r="B27" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H27" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I27" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="44" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="M27" s="44" t="n">
-        <v>101000.0</v>
-      </c>
-      <c r="N27" s="42" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="R27" s="42" t="n">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H28" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I28" s="42" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="K28" s="44" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="M28" s="44" t="n">
-        <v>8000.0</v>
-      </c>
-      <c r="N28" s="42" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42" t="n">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="P31" s="41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="P32" s="41" t="s">
-        <v>118</v>
+    <row r="32" spans="2:19">
+      <c r="P32" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" deleteRows="0"/>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="H21:H23"/>
@@ -10340,16 +9944,8 @@
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:R22"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
